--- a/locations.xlsx
+++ b/locations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Longitude</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Full Address</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,6 +457,7 @@
       <c r="B2" t="n">
         <v>72.6601</v>
       </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -460,6 +466,7 @@
       <c r="B3" t="n">
         <v>72.6601</v>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -468,6 +475,7 @@
       <c r="B4" t="n">
         <v>72.65362348524818</v>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -476,6 +484,7 @@
       <c r="B5" t="n">
         <v>72.65363759278395</v>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -484,6 +493,7 @@
       <c r="B6" t="n">
         <v>72.6535436869828</v>
       </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -492,6 +502,7 @@
       <c r="B7" t="n">
         <v>72.6537161</v>
       </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -499,6 +510,52 @@
       </c>
       <c r="B8" t="n">
         <v>72.65356520256776</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Address not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Address not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Address not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,6 +558,24 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,15 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>Full Address</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detailed Address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Extra Details</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -458,6 +468,8 @@
         <v>72.6601</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -467,6 +479,8 @@
         <v>72.6601</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -476,6 +490,8 @@
         <v>72.65362348524818</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -485,6 +501,8 @@
         <v>72.65363759278395</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -494,6 +512,8 @@
         <v>72.6535436869828</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -503,6 +523,8 @@
         <v>72.6537161</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -512,6 +534,8 @@
         <v>72.65356520256776</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -521,6 +545,8 @@
           <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -530,6 +556,8 @@
           <t>Address not found</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -539,6 +567,8 @@
           <t>Address not found</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -548,6 +578,8 @@
           <t>Address not found</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -557,6 +589,8 @@
           <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -566,6 +600,8 @@
           <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -575,6 +611,8 @@
           <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -584,6 +622,228 @@
           <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Road 3, Sector 7, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Road 3, Sector 7, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Road 3, Sector 7, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Road 3, Sector 7, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Address not found</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Address not found</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Address not found</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Address not found</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Address not found</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23.21339846163475</v>
+      </c>
+      <c r="B26" t="n">
+        <v>72.65364596515204</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.21339846163475</v>
+      </c>
+      <c r="B27" t="n">
+        <v>72.65364596515204</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23.21339846163475</v>
+      </c>
+      <c r="B28" t="n">
+        <v>72.65364596515204</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.21340312470059</v>
+      </c>
+      <c r="B29" t="n">
+        <v>72.65365372153879</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Block 2, Wing C, Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Block 2, Wing C</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>23.21340312470059</v>
+      </c>
+      <c r="B30" t="n">
+        <v>72.65365372153879</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Block 2, Wing C, Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Block 2, Wing C</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23.21340312470059</v>
+      </c>
+      <c r="B31" t="n">
+        <v>72.65365372153879</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Block 2, Wing C, Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Block 2, Wing C</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>23.21340312470059</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72.65365372153879</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Block 2, Wing C, Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Block 2, Wing C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,21 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>23.2133828399499</v>
+      </c>
+      <c r="B33" t="n">
+        <v>72.65363619960803</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Karmayogi Bhavan, Road 3, Sector 7, Gandhinagar, Gandhinagar Taluka, Gandhinagar, Gujarat, 382008, India</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
